--- a/examples/EU_without_aggregation/InputData/SpatialData/Pipelines/PipelineDistance_13times_aggregated.xlsx
+++ b/examples/EU_without_aggregation/InputData/SpatialData/Pipelines/PipelineDistance_13times_aggregated.xlsx
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122256.2870627172</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>10014.42115402535</v>
@@ -790,7 +790,7 @@
         <v>13088.1436542496</v>
       </c>
       <c r="D4" t="n">
-        <v>34848.14909636675</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>9529.72478439973</v>
@@ -1004,7 +1004,7 @@
         <v>11969.00669442566</v>
       </c>
       <c r="F6" t="n">
-        <v>18142.49377945132</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>59998.05708138229</v>
@@ -1111,7 +1111,7 @@
         <v>59998.0570813823</v>
       </c>
       <c r="G7" t="n">
-        <v>19483.62473232129</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>15196.80081159722</v>
@@ -1432,7 +1432,7 @@
         <v>23020.03657449901</v>
       </c>
       <c r="J10" t="n">
-        <v>58860.22599628296</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>155223.4456187254</v>
@@ -1539,7 +1539,7 @@
         <v>155223.4456187254</v>
       </c>
       <c r="K11" t="n">
-        <v>7889.375524342138</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>3572.997661658334</v>
@@ -1753,7 +1753,7 @@
         <v>2460.666429808808</v>
       </c>
       <c r="M13" t="n">
-        <v>737.8148347000777</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>6114.187271321522</v>
@@ -1860,7 +1860,7 @@
         <v>6114.187271321523</v>
       </c>
       <c r="N14" t="n">
-        <v>1961.007907245281</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>6504.90556111327</v>
@@ -1967,7 +1967,7 @@
         <v>6504.905561113271</v>
       </c>
       <c r="O15" t="n">
-        <v>493.1448197187494</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>21473.62853771004</v>
@@ -2074,7 +2074,7 @@
         <v>21473.62853771004</v>
       </c>
       <c r="P16" t="n">
-        <v>14836.84889876905</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>15994.50511267705</v>
@@ -2288,7 +2288,7 @@
         <v>10951.97589038482</v>
       </c>
       <c r="R18" t="n">
-        <v>10725.39108149823</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>30432.07253293856</v>
@@ -2395,7 +2395,7 @@
         <v>30432.07253293856</v>
       </c>
       <c r="S19" t="n">
-        <v>686.518330643815</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>15433.15971497684</v>
@@ -2502,7 +2502,7 @@
         <v>15433.15971497683</v>
       </c>
       <c r="T20" t="n">
-        <v>1568.044053386227</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>1380.42264157622</v>
@@ -2930,7 +2930,7 @@
         <v>1360.765991841237</v>
       </c>
       <c r="X24" t="n">
-        <v>464.2482760246506</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>3265.012261394284</v>
@@ -3572,7 +3572,7 @@
         <v>2080.832311256152</v>
       </c>
       <c r="AD30" t="n">
-        <v>216.6498943360726</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>2259.749828881266</v>
@@ -3786,7 +3786,7 @@
         <v>4727.14029867392</v>
       </c>
       <c r="AF32" t="n">
-        <v>1341.584394275958</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
         <v>6712.931455839092</v>

--- a/examples/EU_without_aggregation/InputData/SpatialData/Pipelines/PipelineDistance_13times_aggregated.xlsx
+++ b/examples/EU_without_aggregation/InputData/SpatialData/Pipelines/PipelineDistance_13times_aggregated.xlsx
@@ -12,110 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>lv</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>hu</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>cz</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>dk</t>
-  </si>
-  <si>
-    <t>ie</t>
-  </si>
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>lu</t>
-  </si>
-  <si>
-    <t>rs</t>
-  </si>
-  <si>
-    <t>ba</t>
-  </si>
-  <si>
-    <t>ch</t>
-  </si>
-  <si>
-    <t>sk</t>
-  </si>
-  <si>
-    <t>fi</t>
-  </si>
-  <si>
-    <t>mk</t>
-  </si>
-  <si>
-    <t>bg</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,110 +366,178 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ee</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>hu</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>gr</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ro</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>cz</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>uk</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>me</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>nl</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>dk</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ie</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>lt</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>lu</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>rs</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ch</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>sk</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>fi</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>mk</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>bg</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,9 +639,11 @@
         <v>35210.52265944513</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>10014.42115402535</v>
@@ -779,9 +745,11 @@
         <v>2324.42652562597</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>260389.5793588221</v>
@@ -883,9 +851,11 @@
         <v>22474.04448170439</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ee</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>39293.65023071136</v>
@@ -987,9 +957,11 @@
         <v>2306.64474188497</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>104040.8684973978</v>
@@ -1091,9 +1063,11 @@
         <v>13423.11789807314</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>116711.2273824823</v>
@@ -1195,9 +1169,11 @@
         <v>8558.620274476341</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>36748.33010836806</v>
@@ -1299,9 +1275,11 @@
         <v>2043.621736809024</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>18198.73232960588</v>
@@ -1403,9 +1381,11 @@
         <v>1177.389683819583</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>199272.7753484521</v>
@@ -1507,9 +1487,11 @@
         <v>34340.79400258782</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>132382.375398636</v>
@@ -1611,9 +1593,11 @@
         <v>7222.693692244859</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>hu</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>24583.99234715628</v>
@@ -1715,9 +1699,11 @@
         <v>869.3352797024346</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>gr</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>71408.42169622808</v>
@@ -1819,9 +1805,11 @@
         <v>1212.869024598159</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ro</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>99360.93556241631</v>
@@ -1923,9 +1911,11 @@
         <v>1405.098817245592</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>cz</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>39642.34566724073</v>
@@ -2027,9 +2017,11 @@
         <v>2783.636304379926</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>uk</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>109592.9433984397</v>
@@ -2131,9 +2123,11 @@
         <v>18827.6974038635</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>me</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>26499.73988916824</v>
@@ -2235,9 +2229,11 @@
         <v>636.4204898531425</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>145948.5378375883</v>
@@ -2339,9 +2335,11 @@
         <v>11421.09720690576</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>47521.13397199489</v>
@@ -2443,9 +2441,11 @@
         <v>7249.125341555746</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>51892.85752349086</v>
@@ -2547,9 +2547,11 @@
         <v>3979.965693080098</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>20863.36000355196</v>
@@ -2651,9 +2653,11 @@
         <v>976.0839610409864</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>29222.61625995162</v>
@@ -2755,9 +2759,11 @@
         <v>607.4374117259903</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>nl</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>13418.90795373091</v>
@@ -2859,9 +2865,11 @@
         <v>2346.887012568117</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>dk</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>45632.71213413228</v>
@@ -2963,9 +2971,11 @@
         <v>4623.322341529678</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>ie</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>21594.02766388361</v>
@@ -3067,9 +3077,11 @@
         <v>3524.197356156712</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>lt</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>34192.60696591411</v>
@@ -3171,9 +3183,11 @@
         <v>1825.07621501652</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>lu</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>9381.133318987819</v>
@@ -3275,9 +3289,11 @@
         <v>2156.491338143557</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>rs</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>27848.63854638407</v>
@@ -3379,9 +3395,11 @@
         <v>497.8048547820542</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>23366.61498697982</v>
@@ -3483,9 +3501,11 @@
         <v>806.4091886656892</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>ch</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>18844.99743462027</v>
@@ -3587,9 +3607,11 @@
         <v>3669.895488287105</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>sk</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>24752.36347453936</v>
@@ -3691,9 +3713,11 @@
         <v>1034.144253085604</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>fi</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>95731.98877503446</v>
@@ -3795,9 +3819,11 @@
         <v>6344.46823193002</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>mk</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>31077.3855436777</v>
@@ -3899,9 +3925,11 @@
         <v>416.6642735003438</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>bg</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>35210.52265944513</v>

--- a/examples/EU_without_aggregation/InputData/SpatialData/Pipelines/PipelineDistance_13times_aggregated.xlsx
+++ b/examples/EU_without_aggregation/InputData/SpatialData/Pipelines/PipelineDistance_13times_aggregated.xlsx
@@ -369,174 +369,174 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ee</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>lv</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>hu</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gr</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>cz</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>uk</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>hr</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>al</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>dk</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>ie</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>lt</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>lu</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>rs</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>ch</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>sk</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>fi</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>mk</t>
+          <t>MK</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>bg</t>
+          <t>BG</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -642,7 +642,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -748,7 +748,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -854,7 +854,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ee</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -960,7 +960,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1066,7 +1066,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1172,7 +1172,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>lv</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1278,7 +1278,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1384,7 +1384,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1490,7 +1490,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1596,7 +1596,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>hu</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1702,7 +1702,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>gr</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1808,7 +1808,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1914,7 +1914,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>cz</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2020,7 +2020,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>uk</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2126,7 +2126,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2232,7 +2232,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2338,7 +2338,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2444,7 +2444,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2550,7 +2550,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>hr</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2656,7 +2656,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>al</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2762,7 +2762,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2868,7 +2868,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>dk</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2974,7 +2974,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ie</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3080,7 +3080,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>lt</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3186,7 +3186,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>lu</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3292,7 +3292,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>rs</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3398,7 +3398,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3504,7 +3504,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>ch</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3610,7 +3610,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>sk</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3716,7 +3716,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>fi</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3822,7 +3822,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>mk</t>
+          <t>MK</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3928,7 +3928,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>bg</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B34" t="n">
